--- a/biology/Zoologie/Divana_diva/Divana_diva.xlsx
+++ b/biology/Zoologie/Divana_diva/Divana_diva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Divana diva est une espèce néotropicale de lépidoptères (papillons) de la famille des Castniidae. Elle est l'unique représentante du genre monotypique Divana[1].
-Elle est notamment connue du Nicaragua, du Panama et de Colombie[1].
-Il existe plusieurs sous-espèces[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Divana diva est une espèce néotropicale de lépidoptères (papillons) de la famille des Castniidae. Elle est l'unique représentante du genre monotypique Divana.
+Elle est notamment connue du Nicaragua, du Panama et de Colombie.
+Il existe plusieurs sous-espèces :
 Divana diva diva (Butler, 1870) — Nicaragua
 Divana diva chiriquiensis (Strand, 1913) — Panama
 Divana diva hoppi (Hering, 1923) — Colombie
